--- a/toplantı_takvimi.xlsx
+++ b/toplantı_takvimi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,24 +436,48 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ayşe</t>
+          <t>fatma</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024-11-11 09:00</t>
+          <t>2024-11-11 11:00</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>fatma</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2024-11-11 12:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>ayşe</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2024-11-11 10:00</t>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2024-11-11 13:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ayşe</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2024-11-11 14:00</t>
         </is>
       </c>
     </row>

--- a/toplantı_takvimi.xlsx
+++ b/toplantı_takvimi.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024-11-11 11:00</t>
+          <t>2024-11-12 14:00</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2024-11-11 12:00</t>
+          <t>2024-11-12 15:00</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2024-11-11 13:00</t>
+          <t>2024-11-12 16:00</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024-11-11 14:00</t>
+          <t>2024-11-12 17:00</t>
         </is>
       </c>
     </row>

--- a/toplantı_takvimi.xlsx
+++ b/toplantı_takvimi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,55 +429,559 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>Dosya</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>Toplantı Saati</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>fatma</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2024-11-12 14:00</t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>fatma</t>
+          <t>ahmet</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2024-11-12 15:00</t>
+          <t>konu1.xlsx</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2024-11-11 11:00</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ayşe</t>
+          <t>mehmet</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2024-11-12 16:00</t>
+          <t>konu1.xlsx</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2024-11-11 11:00</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>ali</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>konu1.xlsx</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2024-11-11 11:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>fatma</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>konu1.xlsx</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2024-11-11 11:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>fatma</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>konu2.xlsx</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2024-11-11 11:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>mahmut</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>konu2.xlsx</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2024-11-11 11:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>hidayet</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>konu2.xlsx</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2024-11-11 11:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
           <t>ayşe</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2024-11-12 17:00</t>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>konu2.xlsx</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2024-11-11 11:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ayşe</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>konu3.xlsx</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2024-11-11 11:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Pelin</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>konu3.xlsx</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2024-11-11 11:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>hikmet</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>konu3.xlsx</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2024-11-11 11:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>kemal</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>konu3.xlsx</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2024-11-11 11:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>ahmet</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>konu1.xlsx</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2024-11-11 10:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>mehmet</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>konu1.xlsx</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2024-11-11 10:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>ali</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>konu1.xlsx</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2024-11-11 10:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>mahmut</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>konu2.xlsx</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2024-11-11 10:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>hidayet</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>konu2.xlsx</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2024-11-11 10:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Pelin</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>konu3.xlsx</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2024-11-11 10:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>hikmet</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>konu3.xlsx</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2024-11-11 10:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>kemal</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>konu3.xlsx</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2024-11-11 10:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ahmet</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>konu1.xlsx</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2024-11-11 10:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>mehmet</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>konu1.xlsx</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2024-11-11 11:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>ali</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>konu1.xlsx</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2024-11-11 12:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>fatma</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>konu1.xlsx</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2024-11-11 13:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>mahmut</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>konu2.xlsx</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2024-11-11 14:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>hidayet</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>konu2.xlsx</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2024-11-11 15:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>fatma</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>konu2.xlsx</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2024-11-11 16:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>ayşe</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>konu2.xlsx</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2024-11-11 17:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Pelin</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>konu3.xlsx</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2024-11-11 18:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>hikmet</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>konu3.xlsx</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2024-11-11 19:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>kemal</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>konu3.xlsx</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2024-11-11 20:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>ayşe</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>konu3.xlsx</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2024-11-11 21:00</t>
         </is>
       </c>
     </row>
